--- a/scan_results.xlsx
+++ b/scan_results.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>URL</t>
   </si>
@@ -22,46 +22,49 @@
     <t>Length</t>
   </si>
   <si>
-    <t>http://testphp.vulnweb.com/abacus</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/abdomen</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/abdominal</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/guestbook.php</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/abide</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/abiding</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/ability</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/help</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/artists.php</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/ablaze</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/able</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/disclaimer.php</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/abnormal</t>
-  </si>
-  <si>
-    <t>http://testphp.vulnweb.com/scan</t>
+    <t>https://ebanking.agribank.com.vn/abacus</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/abdomen</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/abdominal</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/guestbook.php</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/abide</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/abiding</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/ability</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/help</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/artists.php</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/ablaze</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/able</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/disclaimer.php</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/abnormal</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/scan</t>
+  </si>
+  <si>
+    <t>https://ebanking.agribank.com.vn/cart.php</t>
   </si>
 </sst>
 </file>
@@ -438,7 +441,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -460,7 +463,7 @@
         <v>404</v>
       </c>
       <c r="C2">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -471,7 +474,7 @@
         <v>404</v>
       </c>
       <c r="C3">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -482,7 +485,7 @@
         <v>404</v>
       </c>
       <c r="C4">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -493,7 +496,7 @@
         <v>200</v>
       </c>
       <c r="C5">
-        <v>5390</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -504,7 +507,7 @@
         <v>404</v>
       </c>
       <c r="C6">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -515,7 +518,7 @@
         <v>404</v>
       </c>
       <c r="C7">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -526,7 +529,7 @@
         <v>404</v>
       </c>
       <c r="C8">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -537,7 +540,7 @@
         <v>404</v>
       </c>
       <c r="C9">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -548,7 +551,7 @@
         <v>200</v>
       </c>
       <c r="C10">
-        <v>5328</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -559,7 +562,7 @@
         <v>404</v>
       </c>
       <c r="C11">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -570,7 +573,7 @@
         <v>404</v>
       </c>
       <c r="C12">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -581,7 +584,7 @@
         <v>200</v>
       </c>
       <c r="C13">
-        <v>5524</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -592,7 +595,7 @@
         <v>404</v>
       </c>
       <c r="C14">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -603,7 +606,7 @@
         <v>404</v>
       </c>
       <c r="C15">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -614,7 +617,7 @@
         <v>404</v>
       </c>
       <c r="C16">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -625,7 +628,7 @@
         <v>404</v>
       </c>
       <c r="C17">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -636,7 +639,7 @@
         <v>404</v>
       </c>
       <c r="C18">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -647,7 +650,7 @@
         <v>404</v>
       </c>
       <c r="C19">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,7 +661,7 @@
         <v>404</v>
       </c>
       <c r="C20">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,7 +672,7 @@
         <v>404</v>
       </c>
       <c r="C21">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -680,7 +683,7 @@
         <v>404</v>
       </c>
       <c r="C22">
-        <v>153</v>
+        <v>29429</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -691,7 +694,18 @@
         <v>404</v>
       </c>
       <c r="C23">
-        <v>153</v>
+        <v>29429</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24">
+        <v>200</v>
+      </c>
+      <c r="C24">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
